--- a/SD2.SRXs.xlsx
+++ b/SD2.SRXs.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/u6044067/Documents/Research/2021_Safavi_Toxmims/docs/Frontiers/supplementary_review/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6A2D4A5-5D14-D04A-B1F9-7EABAFDF375E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0891D4BE-711D-C844-9B23-4F48CF34E1A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1520" yWindow="1320" windowWidth="27620" windowHeight="16940" activeTab="2" xr2:uid="{9D6014DE-F41A-3F45-A759-7D3A9CBBBC23}"/>
   </bookViews>
   <sheets>
     <sheet name="Conus venom" sheetId="1" r:id="rId1"/>
     <sheet name="Conus nerve ring" sheetId="2" r:id="rId2"/>
-    <sheet name="Protostome" sheetId="3" r:id="rId3"/>
+    <sheet name="Other" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="103">
   <si>
     <t>raulsilai</t>
   </si>
@@ -329,13 +329,31 @@
   </si>
   <si>
     <t>SRR18071786, SRR18071787, SRR18071788, SRR18071789, SRR18071790, SRR18071791, SRR18071792, SRR18071793, SRR18071794, SRR18071795, SRR18071796, SRR18071797, SRR18071798, SRR18071799, SRR18071800, SRR18071801, SRR18071802, SRR18071803, SRR18071804, SRR18071805, SRR18071806, SRR18071807, SRR18071808, SRR18071809, SRR18071810, SRR18071811, SRR18071812, SRR18071813</t>
+  </si>
+  <si>
+    <t>Aplysia californica</t>
+  </si>
+  <si>
+    <t>GBCZ00000000.1, GBDA00000000.1, GBAV00000000.1, GBBV00000000.1, GBBG00000000.1, GBBE00000000.1, GBBW00000000.1, GBAQ00000000.1, GAZL00000000.1</t>
+  </si>
+  <si>
+    <t>Danio rerio</t>
+  </si>
+  <si>
+    <t>GDHQ0000000.1, GDQQ0000000.1, GFIL00000000.1</t>
+  </si>
+  <si>
+    <t>Platynereis dumerilii</t>
+  </si>
+  <si>
+    <t>GBZT00000000.1, HALR00000000.1, HAMN00000000.1, and HAMO00000000.1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -358,9 +376,28 @@
       <family val="2"/>
     </font>
     <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="13"/>
       <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -384,11 +421,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1133,39 +1173,64 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7FAA352-192C-0D41-931D-6F2AF36DC6A6}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1"/>
+    <col min="1" max="1" width="27" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+      <c r="A2" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="4" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
